--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="260">
   <si>
     <t>日期</t>
   </si>
@@ -926,11 +926,6 @@
 如果用户不设置unit，默认是"millimeter"</t>
   </si>
   <si>
-    <t>product_id:
-SAT文件作者，字符串
-如果用户不设置product_id，默认是"This model is generated by MiSUMi Corporation.Copyright@MiSUMi"</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -973,10 +968,6 @@
     </r>
   </si>
   <si>
-    <t>AGM.Modelling.SaveSat(filepath, version=-1, unit="millimeter", product_id="This model is generated by MiSUMi Corporation.Copyright@MiSUMi")
-范例：Export.js</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1399,33 +1390,6 @@
   </si>
   <si>
     <t>导出文件格式</t>
-  </si>
-  <si>
-    <r>
-      <t>AGM.Modelling.ExportFile(filepath,  unit, part, logpath)
-可以导出Step、Iges、x_t文件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>保存Sat用AGM.Modelling.SaveSat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-范例：Export.js</t>
-    </r>
   </si>
   <si>
     <t>filepath：导出的Step、Iges、x_t文件</t>
@@ -1994,6 +1958,99 @@
 拔模角度，默认为0
 用户如果要设置第四个参数draftangle，必须先设置第三个参数bothside.
 draftangle如果是正数，横截面沿着拉伸方向越来越小；如果是负数，横截面沿着拉伸方向越来越大</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.SaveSat(filepath, version=-1, unit="millimeter", product_id="Copyright @ MISUMI Group Inc. All Rights Reserved.")
+范例：Export.js</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Modelling.ExportFile(filepath,  unit, part, logpath, author=“ksdm”, organization=“Copyright @ MISUMI Group Inc. All Rights Reserved.”)
+可以导出Step、Iges、x_t文件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存Sat用AGM.Modelling.SaveSat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+范例：Export.js</t>
+    </r>
+  </si>
+  <si>
+    <t>author：作者信息，字符串
+默认是"ksdm"</t>
+  </si>
+  <si>
+    <t>orginization：组织信息，字符串
+默认是“Copyright @ MISUMI Group Inc. All Rights Reserved.”</t>
+  </si>
+  <si>
+    <t>product_id:
+SAT文件作者，字符串
+如果用户不设置product_id，默认是“Copyright @ MISUMI Group Inc. All Rights Reserved.”</t>
+  </si>
+  <si>
+    <r>
+      <t>修改：
+AGM.Modelling.SaveSat(filepath, version=-1, unit="millimeter", product_id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Copyright @ MISUMI Group Inc. All Rights Reserved."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+AGM.Modelling.SaveSat第四个参数默认改为"Copyright @ MISUMI Group Inc. All Rights Reserved."
+AGM.Modelling.ExportFile(filepath,  unit, part, logpath, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author=“ksdm”, organization=“Copyright @ MISUMI Group Inc. All Rights Reserved.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+AGM.Modelling.ExportFile新增加了两个参数author和organization</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2147,8 +2204,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2384,7 +2441,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2015192</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>166889</xdr:rowOff>
+      <xdr:rowOff>166888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2741,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2908,7 +2965,7 @@
         <v>20181228</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="115.2">
@@ -2916,7 +2973,7 @@
         <v>20181228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2">
@@ -2924,7 +2981,7 @@
         <v>20190213</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4">
@@ -2932,7 +2989,7 @@
         <v>20190221</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="100.8">
@@ -2940,7 +2997,7 @@
         <v>20190222</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="72">
@@ -2948,7 +3005,7 @@
         <v>20190227</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="115.2">
@@ -2956,7 +3013,7 @@
         <v>20190228</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.2">
@@ -2964,7 +3021,7 @@
         <v>20190312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="43.2">
@@ -2972,7 +3029,7 @@
         <v>20190313</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8">
@@ -2980,7 +3037,7 @@
         <v>20190505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.8">
@@ -2988,7 +3045,7 @@
         <v>20190507</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="115.2">
@@ -2996,7 +3053,7 @@
         <v>20190524</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="216">
@@ -3004,7 +3061,7 @@
         <v>20190527</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="216">
@@ -3012,7 +3069,7 @@
         <v>20190528</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="72">
@@ -3020,7 +3077,7 @@
         <v>20191009</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="43.2">
@@ -3028,7 +3085,7 @@
         <v>20191023</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6">
@@ -3036,7 +3093,7 @@
         <v>20191208</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="57.6">
@@ -3044,7 +3101,7 @@
         <v>20191213</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="129.6">
@@ -3052,7 +3109,7 @@
         <v>20200313</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="100.8">
@@ -3060,7 +3117,7 @@
         <v>20200314</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="72">
@@ -3068,7 +3125,7 @@
         <v>20200318</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144">
@@ -3076,7 +3133,7 @@
         <v>20200327</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="201.6">
@@ -3084,7 +3141,7 @@
         <v>20200416</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="115.2">
@@ -3092,11 +3149,16 @@
         <v>20200506</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" s="3"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="86.4">
+      <c r="A44" s="1">
+        <v>20200506</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="3"/>
@@ -3114,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3205,7 +3267,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -3217,7 +3279,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3227,10 +3289,10 @@
     </row>
     <row r="5" spans="1:11" ht="43.2">
       <c r="A5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
@@ -3242,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3252,10 +3314,10 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
@@ -3267,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3280,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
@@ -3553,10 +3615,10 @@
     </row>
     <row r="25" spans="1:11" ht="57.6">
       <c r="A25" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>34</v>
@@ -3678,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>60</v>
@@ -3690,7 +3752,7 @@
         <v>144</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -3709,7 +3771,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3719,27 +3781,31 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="72">
+    <row r="33" spans="1:11" ht="100.8">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -4438,10 +4504,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4457,13 +4523,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4478,13 +4544,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4499,13 +4565,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4520,13 +4586,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4541,16 +4607,16 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -4564,13 +4630,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -4585,13 +4651,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4606,16 +4672,16 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -4629,22 +4695,22 @@
         <v>6</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4656,19 +4722,19 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -4683,13 +4749,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4704,28 +4770,28 @@
         <v>6</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E85" s="11" t="s">
+      <c r="H85" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
@@ -4917,19 +4983,19 @@
         <v>6</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -4942,22 +5008,22 @@
         <v>6</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D101" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -4990,63 +5056,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8">
       <c r="A5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -2799,7 +2799,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="307">
   <si>
     <t>日期</t>
   </si>
@@ -2051,6 +2051,259 @@
       <t>)
 AGM.Modelling.ExportFile新增加了两个参数author和organization</t>
     </r>
+  </si>
+  <si>
+    <t>**********************************************************************以下是Sketch命令的参数说明**********************************************************************</t>
+  </si>
+  <si>
+    <t>firstX (double): 草图X方向上的第一个点</t>
+  </si>
+  <si>
+    <t>firstY (double): 草图Y方向上的第一个点</t>
+  </si>
+  <si>
+    <t>secondX (double): 草图X方向上的第二个点</t>
+  </si>
+  <si>
+    <t>secondY (double): 草图Y方向上的第二个点</t>
+  </si>
+  <si>
+    <t>in\out sketch_doc (object): 创建的sketch document</t>
+  </si>
+  <si>
+    <t>in owner_doc (object): sketch document</t>
+  </si>
+  <si>
+    <t>orgx, orgy, orgz (double): sketch原点</t>
+  </si>
+  <si>
+    <t>vposx, vposy, vposz (double): skech的V方向(Y方向)</t>
+  </si>
+  <si>
+    <t>uposx, uposy, uposz (double): skech的U方向(X方向)</t>
+  </si>
+  <si>
+    <t>centerX, centerY (double): 圆心</t>
+  </si>
+  <si>
+    <t>radius (double): 半径</t>
+  </si>
+  <si>
+    <t>pos_array: 坐标数组</t>
+  </si>
+  <si>
+    <t>centerX, centerY (double): 椭圆中心</t>
+  </si>
+  <si>
+    <t>major_VecX, major_VecY (double): 椭圆长轴方向</t>
+  </si>
+  <si>
+    <t>major_raidus (double): 椭圆长轴长度</t>
+  </si>
+  <si>
+    <t>minor_raidus (double): 椭圆短轴长度</t>
+  </si>
+  <si>
+    <t>startX, startY (double): 中心线起点</t>
+  </si>
+  <si>
+    <t>endX, endY (double): 中心线终点</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGM.Sketcher.CreateCenterLine(startX, startY, endX, endY)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于Revolve</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CloseSketch()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AGM.Sketcher.OpenSketch(in sketch)
+打开sketch，需要和AGM.Sketcher.CloseSketch对应。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有的草图对象需要绘制在AGM.Sketcher.OpenSketch和AGM.Sketcher.CloseSketch之间</t>
+    </r>
+  </si>
+  <si>
+    <t>in\out new_sketch (object): 在sketch document里面新建的sketch对象</t>
+  </si>
+  <si>
+    <t>in sketch (object): AGM.Sketcher.CreateSketch创建的sketch对象</t>
+  </si>
+  <si>
+    <t>in sketch (object): sketch对象</t>
+  </si>
+  <si>
+    <t>height (double): 拉伸高度</t>
+  </si>
+  <si>
+    <t>reverseFlag (bool): 反转拉伸方向</t>
+  </si>
+  <si>
+    <t>bothsideFlag (bool): 两个方向拉伸</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">removeFlag (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在一个sketch document里面可以存在多个sketch对象，removeFlag = true设置当前sketch对象的拉伸效果是扣减</t>
+    </r>
+  </si>
+  <si>
+    <t>angle (double): 拉伸时的拔模角度</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">removeFlag (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在一个sketch document里面可以存在多个sketch对象，removeFlag = true设置当前sketch对象的选择扫略效果是扣减</t>
+    </r>
+  </si>
+  <si>
+    <t>reverseFlag (bool): 反转旋转扫略方向</t>
+  </si>
+  <si>
+    <t>start_angle, end_angle (double): 设置旋转扫略角度，需要同时设置start angle和end angle</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.Extrude(in sketch, height, [removeFlag = false], [reverseFlag = false], [bothsideFlag = false], [angle = 0])</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.Revolve(in sketch, [removeFlag = false], [start_angle = 0], [end_angle = 360], [reverseFlag = false])</t>
+  </si>
+  <si>
+    <r>
+      <t>AGM.Sketcher.FixModel()
+从当前sketch document生成body，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sketch document调用AGM.Sketcher.FixModel生成body可以参与modeling操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreateDocument(in\out sketch_doc)</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreateSketch(in owner_doc, orgx, orgy, orgz, uposx, uposy, uposz, vposx, vposy, vposz, in\out new_sketch)</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreateRect(firstX, firstY, secondX, secondY, [boolMode = true])</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreatePolygon(pos_array, [boolMode = true])</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreateEllipse(centerX, centerY, major_VecX, major_VecY, major_raidus, minor_radius, [boolMode = true])</t>
+  </si>
+  <si>
+    <t>AGM.Sketcher.CreateCircle(centerX, centerY, radius, [boolMode = true])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolMode (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boolMode = true当前rect与同一个skech里面的其他轮廓合并，boolMode = false当前rect与同一个skech里面的其他轮廓扣减</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolMode (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boolMode = true当前circle与同一个skech里面的其他轮廓合并，boolMode = false当前circle与同一个skech里面的其他轮廓扣减</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolMode (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boolMode = true当前polygon与同一个skech里面的其他轮廓合并，boolMode = false当前polygon与同一个skech里面的其他轮廓扣减</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">boolMode (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boolMode = true当前ellipse与同一个skech里面的其他轮廓合并，boolMode = false当前ellipse与同一个skech里面的其他轮廓扣减</t>
+    </r>
+  </si>
+  <si>
+    <t>添加Sketch命令的参数说明</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2146,13 +2399,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2200,12 +2490,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2798,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3161,7 +3466,12 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="3"/>
+      <c r="A45" s="1">
+        <v>20200222</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" s="3"/>
@@ -3174,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3187,7 +3497,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
-    <col min="6" max="6" width="69" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="33.5546875" customWidth="1"/>
     <col min="8" max="8" width="65.6640625" customWidth="1"/>
     <col min="9" max="9" width="44.33203125" customWidth="1"/>
@@ -3200,17 +3510,17 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4978,7 +5288,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="1:11" ht="72">
+    <row r="100" spans="1:11" ht="100.8">
       <c r="A100" s="5" t="s">
         <v>6</v>
       </c>
@@ -5030,9 +5340,310 @@
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
     </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="23"/>
+    </row>
+    <row r="103" spans="1:11" ht="28.8">
+      <c r="A103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+    </row>
+    <row r="104" spans="1:11" ht="57.6">
+      <c r="A104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" ht="86.4">
+      <c r="A105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" ht="72">
+      <c r="A106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" ht="43.2">
+      <c r="A107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11" ht="72">
+      <c r="A108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" ht="72">
+      <c r="A109" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" ht="43.2">
+      <c r="A110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" ht="43.2">
+      <c r="A112" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" ht="72">
+      <c r="A113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11" ht="72">
+      <c r="A114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A102:K102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Change Log.xlsx
+++ b/Change Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="311">
   <si>
     <t>日期</t>
   </si>
@@ -2304,6 +2304,20 @@
   </si>
   <si>
     <t>添加Sketch命令的参数说明</t>
+  </si>
+  <si>
+    <t>xscale : double类型，X方向缩放的比例</t>
+  </si>
+  <si>
+    <t>yscale : double类型，Y方向缩放的比例</t>
+  </si>
+  <si>
+    <t>zscale : double类型，Z方向缩放的比例</t>
+  </si>
+  <si>
+    <t>AGM.Modelling.NonUniformScaleBody( body, xscale, yscale, zscale )
+非均匀缩放指定的body
+范例: NonUniformScale.js</t>
   </si>
 </sst>
 </file>
@@ -2509,9 +2523,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2537,7 +2551,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1731593</xdr:colOff>
+      <xdr:colOff>1731592</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>127297</xdr:rowOff>
     </xdr:to>
@@ -2651,7 +2665,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>753045</xdr:colOff>
+      <xdr:colOff>753044</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>357013</xdr:rowOff>
     </xdr:to>
@@ -2689,7 +2703,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>175259</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2744,7 +2758,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2015192</xdr:colOff>
+      <xdr:colOff>1064933</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>166888</xdr:rowOff>
     </xdr:to>
@@ -2815,7 +2829,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3103,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3467,7 +3481,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>20200222</v>
+        <v>20210222</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>306</v>
@@ -3486,14 +3500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
@@ -4849,7 +4863,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" ht="57.6">
+    <row r="75" spans="1:11" ht="43.2">
       <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
@@ -5340,150 +5354,154 @@
       <c r="J101" s="10"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="21" t="s">
+    <row r="102" spans="1:11" ht="57.6">
+      <c r="A102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="23"/>
-    </row>
-    <row r="103" spans="1:11" ht="28.8">
-      <c r="A103" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-    </row>
-    <row r="104" spans="1:11" ht="57.6">
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="23"/>
+    </row>
+    <row r="104" spans="1:11" ht="28.8">
       <c r="A104" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11" ht="86.4">
+        <v>296</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" spans="1:11" ht="57.6">
       <c r="A105" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" spans="1:11" ht="72">
+    <row r="106" spans="1:11" ht="86.4">
       <c r="A106" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>302</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" spans="1:11" ht="43.2">
+    <row r="107" spans="1:11" ht="72">
       <c r="A107" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
-    <row r="108" spans="1:11" ht="72">
+    <row r="108" spans="1:11" ht="43.2">
       <c r="A108" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E108" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="4"/>
@@ -5496,59 +5514,63 @@
         <v>6</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>305</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
-    <row r="110" spans="1:11" ht="43.2">
+    <row r="110" spans="1:11" ht="72">
       <c r="A110" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" ht="43.2">
       <c r="A111" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="4"/>
+      <c r="B111" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -5556,56 +5578,48 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" spans="1:11" ht="43.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>289</v>
-      </c>
+      <c r="B112" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" spans="1:11" ht="72">
+    <row r="113" spans="1:11" ht="43.2">
       <c r="A113" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>290</v>
+      <c r="D113" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -5614,22 +5628,34 @@
       <c r="A114" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="B114" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+    <row r="115" spans="1:11" ht="72">
+      <c r="A115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>295</v>
+      </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -5643,7 +5669,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A103:K103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5656,7 +5682,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
